--- a/assets/rumhowler_data.xlsx
+++ b/assets/rumhowler_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko\OneDrive\Työpöytä\Programming projects\alko_app\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94208AC-D609-41C1-932E-D2DCE3A47FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C31A6E-6B04-4A3F-B28E-71B211480228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="383">
   <si>
     <t>Rum</t>
   </si>
@@ -1160,6 +1160,15 @@
   </si>
   <si>
     <t>Havana Club Selección de Maestros</t>
+  </si>
+  <si>
+    <t>ReviewCount</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>therumhowlerblog.com</t>
   </si>
 </sst>
 </file>
@@ -1523,3055 +1532,5337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B380"/>
+  <dimension ref="A1:D380"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A298" sqref="A298"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="74" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>361</v>
       </c>
       <c r="B3">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>80</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>88.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <v>82</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>378</v>
       </c>
       <c r="B18">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
         <v>79.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>85</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>375</v>
       </c>
       <c r="B27">
         <v>89.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
       <c r="B28">
         <v>86</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
       <c r="B29">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
       <c r="B30">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
       <c r="B31">
         <v>87</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32">
         <v>91</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="B33">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
       <c r="B34">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35">
         <v>83</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
       <c r="B36">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>34</v>
       </c>
       <c r="B37">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38">
         <v>84</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
       <c r="B39">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
       <c r="B40">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>38</v>
       </c>
       <c r="B41">
         <v>86</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>39</v>
       </c>
       <c r="B42">
         <v>85</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
       <c r="B43">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>41</v>
       </c>
       <c r="B44">
         <v>89</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
       <c r="B45">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>43</v>
       </c>
       <c r="B46">
         <v>78</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
       <c r="B47">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
       <c r="B48">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>46</v>
       </c>
       <c r="B49">
         <v>76</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>47</v>
       </c>
       <c r="B50">
         <v>73</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>48</v>
       </c>
       <c r="B51">
         <v>86</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>364</v>
       </c>
       <c r="B52">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>49</v>
       </c>
       <c r="B53">
         <v>82</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
       <c r="B54">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
       <c r="B55">
         <v>87</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>52</v>
       </c>
       <c r="B56">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>53</v>
       </c>
       <c r="B57">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>372</v>
       </c>
       <c r="B58">
         <v>81</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>54</v>
       </c>
       <c r="B59">
         <v>84</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>374</v>
       </c>
       <c r="B60">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>55</v>
       </c>
       <c r="B61">
         <v>69</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>56</v>
       </c>
       <c r="B62">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>57</v>
       </c>
       <c r="B63">
         <v>81</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>58</v>
       </c>
       <c r="B64">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>59</v>
       </c>
       <c r="B65">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>60</v>
       </c>
       <c r="B66">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>61</v>
       </c>
       <c r="B67">
         <v>72.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>62</v>
       </c>
       <c r="B68">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>63</v>
       </c>
       <c r="B69">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>64</v>
       </c>
       <c r="B70">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>65</v>
       </c>
       <c r="B71">
         <v>73.5</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>365</v>
       </c>
       <c r="B72">
         <v>78</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>66</v>
       </c>
       <c r="B73">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>67</v>
       </c>
       <c r="B74">
         <v>79.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>68</v>
       </c>
       <c r="B75">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>69</v>
       </c>
       <c r="B76">
         <v>85</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>70</v>
       </c>
       <c r="B77">
         <v>84</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>368</v>
       </c>
       <c r="B78">
         <v>82</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>71</v>
       </c>
       <c r="B79">
         <v>85</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>72</v>
       </c>
       <c r="B80">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>73</v>
       </c>
       <c r="B81">
         <v>69</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>74</v>
       </c>
       <c r="B82">
         <v>84</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>75</v>
       </c>
       <c r="B83">
         <v>78</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>76</v>
       </c>
       <c r="B84">
         <v>78</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>77</v>
       </c>
       <c r="B85">
         <v>80</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>78</v>
       </c>
       <c r="B86">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>373</v>
       </c>
       <c r="B87">
         <v>65</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>79</v>
       </c>
       <c r="B88">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>80</v>
       </c>
       <c r="B89">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>81</v>
       </c>
       <c r="B90">
         <v>87</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>82</v>
       </c>
       <c r="B91">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>83</v>
       </c>
       <c r="B92">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>84</v>
       </c>
       <c r="B93">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>85</v>
       </c>
       <c r="B94">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>86</v>
       </c>
       <c r="B95">
         <v>91</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>87</v>
       </c>
       <c r="B96">
         <v>84</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>88</v>
       </c>
       <c r="B97">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>89</v>
       </c>
       <c r="B98">
         <v>80</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>90</v>
       </c>
       <c r="B99">
         <v>89</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>91</v>
       </c>
       <c r="B100">
         <v>85</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>92</v>
       </c>
       <c r="B101">
         <v>76</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>93</v>
       </c>
       <c r="B102">
         <v>77</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>94</v>
       </c>
       <c r="B103">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>367</v>
       </c>
       <c r="B104">
         <v>86</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>95</v>
       </c>
       <c r="B105">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>96</v>
       </c>
       <c r="B106">
         <v>77</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>97</v>
       </c>
       <c r="B107">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>98</v>
       </c>
       <c r="B108">
         <v>89.5</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>99</v>
       </c>
       <c r="B109">
         <v>79</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>100</v>
       </c>
       <c r="B110">
         <v>80</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>101</v>
       </c>
       <c r="B111">
         <v>82</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>102</v>
       </c>
       <c r="B112">
         <v>80</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>103</v>
       </c>
       <c r="B113">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>104</v>
       </c>
       <c r="B114">
         <v>79.5</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>105</v>
       </c>
       <c r="B115">
         <v>75.5</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>106</v>
       </c>
       <c r="B116">
         <v>78</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>107</v>
       </c>
       <c r="B117">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>108</v>
       </c>
       <c r="B118">
         <v>80</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>109</v>
       </c>
       <c r="B119">
         <v>80.5</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>110</v>
       </c>
       <c r="B120">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>111</v>
       </c>
       <c r="B121">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>112</v>
       </c>
       <c r="B122">
         <v>76</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>113</v>
       </c>
       <c r="B123">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>114</v>
       </c>
       <c r="B124">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>115</v>
       </c>
       <c r="B125">
         <v>81</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>116</v>
       </c>
       <c r="B126">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>117</v>
       </c>
       <c r="B127">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>118</v>
       </c>
       <c r="B128">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>119</v>
       </c>
       <c r="B129">
         <v>84</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>120</v>
       </c>
       <c r="B130">
         <v>85</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>121</v>
       </c>
       <c r="B131">
         <v>83</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>122</v>
       </c>
       <c r="B132">
         <v>74</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>123</v>
       </c>
       <c r="B133">
         <v>80.5</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>124</v>
       </c>
       <c r="B134">
         <v>78</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>125</v>
       </c>
       <c r="B135">
         <v>85</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>126</v>
       </c>
       <c r="B136">
         <v>77</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>127</v>
       </c>
       <c r="B137">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>128</v>
       </c>
       <c r="B138">
         <v>89</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>129</v>
       </c>
       <c r="B139">
         <v>81</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>130</v>
       </c>
       <c r="B140">
         <v>78.5</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>131</v>
       </c>
       <c r="B141">
         <v>86</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>132</v>
       </c>
       <c r="B142">
         <v>82</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>133</v>
       </c>
       <c r="B143">
         <v>72.5</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>134</v>
       </c>
       <c r="B144">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>135</v>
       </c>
       <c r="B145">
         <v>83</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>136</v>
       </c>
       <c r="B146">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>137</v>
       </c>
       <c r="B147">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>138</v>
       </c>
       <c r="B148">
         <v>72</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>139</v>
       </c>
       <c r="B149">
         <v>77.5</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>140</v>
       </c>
       <c r="B150">
         <v>82</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>141</v>
       </c>
       <c r="B151">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>142</v>
       </c>
       <c r="B152">
         <v>83</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>143</v>
       </c>
       <c r="B153">
         <v>78</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>144</v>
       </c>
       <c r="B154">
         <v>80</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>145</v>
       </c>
       <c r="B155">
         <v>80.5</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>146</v>
       </c>
       <c r="B156">
         <v>83</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>147</v>
       </c>
       <c r="B157">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>148</v>
       </c>
       <c r="B158">
         <v>85</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>149</v>
       </c>
       <c r="B159">
         <v>87</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>150</v>
       </c>
       <c r="B160">
         <v>86</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>151</v>
       </c>
       <c r="B161">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>152</v>
       </c>
       <c r="B162">
         <v>86</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>153</v>
       </c>
       <c r="B163">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>154</v>
       </c>
       <c r="B164">
         <v>81</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>155</v>
       </c>
       <c r="B165">
         <v>80.5</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>156</v>
       </c>
       <c r="B166">
         <v>80</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>157</v>
       </c>
       <c r="B167">
         <v>85</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>158</v>
       </c>
       <c r="B168">
         <v>86</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>159</v>
       </c>
       <c r="B169">
         <v>87</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>160</v>
       </c>
       <c r="B170">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>161</v>
       </c>
       <c r="B171">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>162</v>
       </c>
       <c r="B172">
         <v>88.5</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>163</v>
       </c>
       <c r="B173">
         <v>80.5</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>164</v>
       </c>
       <c r="B174">
         <v>84</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>1</v>
+      </c>
+      <c r="D174" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>165</v>
       </c>
       <c r="B175">
         <v>88</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>166</v>
       </c>
       <c r="B176">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>167</v>
       </c>
       <c r="B177">
         <v>92.5</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>168</v>
       </c>
       <c r="B178">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>1</v>
+      </c>
+      <c r="D178" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>376</v>
       </c>
       <c r="B179">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>169</v>
       </c>
       <c r="B180">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>170</v>
       </c>
       <c r="B181">
         <v>85</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>171</v>
       </c>
       <c r="B182">
         <v>82</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <v>1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>172</v>
       </c>
       <c r="B183">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>173</v>
       </c>
       <c r="B184">
         <v>82</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>174</v>
       </c>
       <c r="B185">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>175</v>
       </c>
       <c r="B186">
         <v>86</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>176</v>
       </c>
       <c r="B187">
         <v>83</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>177</v>
       </c>
       <c r="B188">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>178</v>
       </c>
       <c r="B189">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>179</v>
       </c>
       <c r="B190">
         <v>79</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>180</v>
       </c>
       <c r="B191">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>181</v>
       </c>
       <c r="B192">
         <v>88.5</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>182</v>
       </c>
       <c r="B193">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193">
+        <v>1</v>
+      </c>
+      <c r="D193" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>183</v>
       </c>
       <c r="B194">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>366</v>
       </c>
       <c r="B195">
         <v>86</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>184</v>
       </c>
       <c r="B196">
         <v>85</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>185</v>
       </c>
       <c r="B197">
         <v>90</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>186</v>
       </c>
       <c r="B198">
         <v>85</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198">
+        <v>1</v>
+      </c>
+      <c r="D198" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>187</v>
       </c>
       <c r="B199">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>188</v>
       </c>
       <c r="B200">
         <v>88.5</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>189</v>
       </c>
       <c r="B201">
         <v>89.5</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>190</v>
       </c>
       <c r="B202">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>362</v>
       </c>
       <c r="B203">
         <v>91.5</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>191</v>
       </c>
       <c r="B204">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>192</v>
       </c>
       <c r="B205">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>193</v>
       </c>
       <c r="B206">
         <v>83</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>194</v>
       </c>
       <c r="B207">
         <v>90.5</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>195</v>
       </c>
       <c r="B208">
         <v>83</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>196</v>
       </c>
       <c r="B209">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>197</v>
       </c>
       <c r="B210">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>198</v>
       </c>
       <c r="B211">
         <v>84</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>199</v>
       </c>
       <c r="B212">
         <v>81.5</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>200</v>
       </c>
       <c r="B213">
         <v>90</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>201</v>
       </c>
       <c r="B214">
         <v>88</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214">
+        <v>1</v>
+      </c>
+      <c r="D214" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>202</v>
       </c>
       <c r="B215">
         <v>88.5</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215">
+        <v>1</v>
+      </c>
+      <c r="D215" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>203</v>
       </c>
       <c r="B216">
         <v>84</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>204</v>
       </c>
       <c r="B217">
         <v>88.5</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217">
+        <v>1</v>
+      </c>
+      <c r="D217" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>205</v>
       </c>
       <c r="B218">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218">
+        <v>1</v>
+      </c>
+      <c r="D218" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>206</v>
       </c>
       <c r="B219">
         <v>79</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>207</v>
       </c>
       <c r="B220">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220">
+        <v>1</v>
+      </c>
+      <c r="D220" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>208</v>
       </c>
       <c r="B221">
         <v>88.5</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C221">
+        <v>1</v>
+      </c>
+      <c r="D221" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>209</v>
       </c>
       <c r="B222">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>363</v>
       </c>
       <c r="B223">
         <v>87</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C223">
+        <v>1</v>
+      </c>
+      <c r="D223" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>210</v>
       </c>
       <c r="B224">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>377</v>
       </c>
       <c r="B225">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>211</v>
       </c>
       <c r="B226">
         <v>88</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226">
+        <v>1</v>
+      </c>
+      <c r="D226" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>212</v>
       </c>
       <c r="B227">
         <v>89</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>213</v>
       </c>
       <c r="B228">
         <v>79.5</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228">
+        <v>1</v>
+      </c>
+      <c r="D228" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>214</v>
       </c>
       <c r="B229">
         <v>86</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C229">
+        <v>1</v>
+      </c>
+      <c r="D229" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>215</v>
       </c>
       <c r="B230">
         <v>89.5</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C230">
+        <v>1</v>
+      </c>
+      <c r="D230" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>216</v>
       </c>
       <c r="B231">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>217</v>
       </c>
       <c r="B232">
         <v>88</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>218</v>
       </c>
       <c r="B233">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C233">
+        <v>1</v>
+      </c>
+      <c r="D233" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>219</v>
       </c>
       <c r="B234">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>220</v>
       </c>
       <c r="B235">
         <v>85</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C235">
+        <v>1</v>
+      </c>
+      <c r="D235" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>221</v>
       </c>
       <c r="B236">
         <v>90</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>222</v>
       </c>
       <c r="B237">
         <v>89</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>223</v>
       </c>
       <c r="B238">
         <v>90.5</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C238">
+        <v>1</v>
+      </c>
+      <c r="D238" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>224</v>
       </c>
       <c r="B239">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>164</v>
       </c>
       <c r="B240">
         <v>84</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>225</v>
       </c>
       <c r="B241">
         <v>87</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C241">
+        <v>1</v>
+      </c>
+      <c r="D241" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>226</v>
       </c>
       <c r="B242">
         <v>83</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>227</v>
       </c>
       <c r="B243">
         <v>90</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>228</v>
       </c>
       <c r="B244">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>229</v>
       </c>
       <c r="B245">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>230</v>
       </c>
       <c r="B246">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>231</v>
       </c>
       <c r="B247">
         <v>85</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C247">
+        <v>1</v>
+      </c>
+      <c r="D247" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>232</v>
       </c>
       <c r="B248">
         <v>72.5</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>233</v>
       </c>
       <c r="B249">
         <v>94</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>234</v>
       </c>
       <c r="B250">
         <v>83</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>235</v>
       </c>
       <c r="B251">
         <v>89</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>236</v>
       </c>
       <c r="B252">
         <v>92.5</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>237</v>
       </c>
       <c r="B253">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>238</v>
       </c>
       <c r="B254">
         <v>86</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>239</v>
       </c>
       <c r="B255">
         <v>91</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>240</v>
       </c>
       <c r="B256">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>241</v>
       </c>
       <c r="B257">
         <v>84</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>242</v>
       </c>
       <c r="B258">
         <v>85</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>243</v>
       </c>
       <c r="B259">
         <v>86</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>244</v>
       </c>
       <c r="B260">
         <v>84</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C260">
+        <v>1</v>
+      </c>
+      <c r="D260" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>245</v>
       </c>
       <c r="B261">
         <v>87</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>246</v>
       </c>
       <c r="B262">
         <v>82</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>247</v>
       </c>
       <c r="B263">
         <v>81</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C263">
+        <v>1</v>
+      </c>
+      <c r="D263" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>248</v>
       </c>
       <c r="B264">
         <v>88.5</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C264">
+        <v>1</v>
+      </c>
+      <c r="D264" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>249</v>
       </c>
       <c r="B265">
         <v>84</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C265">
+        <v>1</v>
+      </c>
+      <c r="D265" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>250</v>
       </c>
       <c r="B266">
         <v>90</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C266">
+        <v>1</v>
+      </c>
+      <c r="D266" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>251</v>
       </c>
       <c r="B267">
         <v>92</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C267">
+        <v>1</v>
+      </c>
+      <c r="D267" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>252</v>
       </c>
       <c r="B268">
         <v>86</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C268">
+        <v>1</v>
+      </c>
+      <c r="D268" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>253</v>
       </c>
       <c r="B269">
         <v>92.5</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C269">
+        <v>1</v>
+      </c>
+      <c r="D269" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>254</v>
       </c>
       <c r="B270">
         <v>88</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C270">
+        <v>1</v>
+      </c>
+      <c r="D270" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>255</v>
       </c>
       <c r="B271">
         <v>86</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C271">
+        <v>1</v>
+      </c>
+      <c r="D271" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>256</v>
       </c>
       <c r="B272">
         <v>93.5</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C272">
+        <v>1</v>
+      </c>
+      <c r="D272" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>257</v>
       </c>
       <c r="B273">
         <v>91.5</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C273">
+        <v>1</v>
+      </c>
+      <c r="D273" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>258</v>
       </c>
       <c r="B274">
         <v>87</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C274">
+        <v>1</v>
+      </c>
+      <c r="D274" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>259</v>
       </c>
       <c r="B275">
         <v>89.5</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C275">
+        <v>1</v>
+      </c>
+      <c r="D275" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>260</v>
       </c>
       <c r="B276">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C276">
+        <v>1</v>
+      </c>
+      <c r="D276" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>261</v>
       </c>
       <c r="B277">
         <v>88</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C277">
+        <v>1</v>
+      </c>
+      <c r="D277" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>262</v>
       </c>
       <c r="B278">
         <v>93.5</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>263</v>
       </c>
       <c r="B279">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>264</v>
       </c>
       <c r="B280">
         <v>90</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C280">
+        <v>1</v>
+      </c>
+      <c r="D280" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>265</v>
       </c>
       <c r="B281">
         <v>84.5</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>266</v>
       </c>
       <c r="B282">
         <v>89</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>267</v>
       </c>
       <c r="B283">
         <v>88</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C283">
+        <v>1</v>
+      </c>
+      <c r="D283" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>268</v>
       </c>
       <c r="B284">
         <v>82</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C284">
+        <v>1</v>
+      </c>
+      <c r="D284" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>269</v>
       </c>
       <c r="B285">
         <v>92</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>270</v>
       </c>
       <c r="B286">
         <v>90.5</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>271</v>
       </c>
       <c r="B287">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C287">
+        <v>1</v>
+      </c>
+      <c r="D287" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>272</v>
       </c>
       <c r="B288">
         <v>90</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>273</v>
       </c>
       <c r="B289">
         <v>91.5</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>274</v>
       </c>
       <c r="B290">
         <v>97</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>275</v>
       </c>
       <c r="B291">
         <v>91</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>276</v>
       </c>
       <c r="B292">
         <v>91.5</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>277</v>
       </c>
       <c r="B293">
         <v>95.5</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>278</v>
       </c>
       <c r="B294">
         <v>94</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>279</v>
       </c>
       <c r="B295">
         <v>93.5</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>280</v>
       </c>
       <c r="B296">
         <v>88.5</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>281</v>
       </c>
       <c r="B297">
         <v>92</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>282</v>
       </c>
       <c r="B298">
         <v>92.5</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>283</v>
       </c>
       <c r="B299">
         <v>89</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>284</v>
       </c>
       <c r="B300">
         <v>90.5</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>285</v>
       </c>
       <c r="B301">
         <v>91.5</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>286</v>
       </c>
       <c r="B302">
         <v>97.5</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>287</v>
       </c>
       <c r="B303">
         <v>92</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>379</v>
       </c>
       <c r="B304">
         <v>91</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>288</v>
       </c>
       <c r="B305">
         <v>89.5</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>289</v>
       </c>
       <c r="B306">
         <v>89</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>290</v>
       </c>
       <c r="B307">
         <v>88</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>291</v>
       </c>
       <c r="B308">
         <v>87</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>292</v>
       </c>
       <c r="B309">
         <v>87</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>293</v>
       </c>
       <c r="B310">
         <v>91</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>294</v>
       </c>
       <c r="B311">
         <v>92.5</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>295</v>
       </c>
       <c r="B312">
         <v>95</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>296</v>
       </c>
       <c r="B313">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>297</v>
       </c>
       <c r="B314">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>298</v>
       </c>
       <c r="B315">
         <v>90.5</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>299</v>
       </c>
       <c r="B316">
         <v>84</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>300</v>
       </c>
       <c r="B317">
         <v>87</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>301</v>
       </c>
       <c r="B318">
         <v>88</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>302</v>
       </c>
       <c r="B319">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>303</v>
       </c>
       <c r="B320">
         <v>92</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>304</v>
       </c>
       <c r="B321">
         <v>92</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>305</v>
       </c>
       <c r="B322">
         <v>87.5</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="D322" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>306</v>
       </c>
       <c r="B323">
         <v>93</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>307</v>
       </c>
       <c r="B324">
         <v>92</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>308</v>
       </c>
       <c r="B325">
         <v>91</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>309</v>
       </c>
       <c r="B326">
         <v>89</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>310</v>
       </c>
       <c r="B327">
         <v>92.5</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>311</v>
       </c>
       <c r="B328">
         <v>85</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>312</v>
       </c>
       <c r="B329">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>313</v>
       </c>
       <c r="B330">
         <v>85</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>370</v>
       </c>
       <c r="B331">
         <v>91.5</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>314</v>
       </c>
       <c r="B332">
         <v>86.5</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>315</v>
       </c>
       <c r="B333">
         <v>88</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>316</v>
       </c>
       <c r="B334">
         <v>93</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>317</v>
       </c>
       <c r="B335">
         <v>97.5</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>318</v>
       </c>
       <c r="B336">
         <v>78</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>319</v>
       </c>
       <c r="B337">
         <v>89.5</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>320</v>
       </c>
       <c r="B338">
         <v>94</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>321</v>
       </c>
       <c r="B339">
         <v>95</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>322</v>
       </c>
       <c r="B340">
         <v>92</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>323</v>
       </c>
       <c r="B341">
         <v>91.5</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>324</v>
       </c>
       <c r="B342">
         <v>94</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>325</v>
       </c>
       <c r="B343">
         <v>96.5</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>326</v>
       </c>
       <c r="B344">
         <v>93.5</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>327</v>
       </c>
       <c r="B345">
         <v>92.5</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>328</v>
       </c>
       <c r="B346">
         <v>96</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>329</v>
       </c>
       <c r="B347">
         <v>92</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>330</v>
       </c>
       <c r="B348">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>331</v>
       </c>
       <c r="B349">
         <v>93.5</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>332</v>
       </c>
       <c r="B350">
         <v>91</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>333</v>
       </c>
       <c r="B351">
         <v>86</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>334</v>
       </c>
       <c r="B352">
         <v>92</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>371</v>
       </c>
       <c r="B353">
         <v>91.5</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>335</v>
       </c>
       <c r="B354">
         <v>95.5</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>336</v>
       </c>
       <c r="B355">
         <v>95</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>337</v>
       </c>
       <c r="B356">
         <v>90</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>338</v>
       </c>
       <c r="B357">
         <v>87</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>339</v>
       </c>
       <c r="B358">
         <v>83</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>340</v>
       </c>
       <c r="B359">
         <v>90.5</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>341</v>
       </c>
       <c r="B360">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>342</v>
       </c>
       <c r="B361">
         <v>85</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>343</v>
       </c>
       <c r="B362">
         <v>79</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>344</v>
       </c>
       <c r="B363">
         <v>85</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>345</v>
       </c>
       <c r="B364">
         <v>90</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>346</v>
       </c>
       <c r="B365">
         <v>88.5</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>347</v>
       </c>
       <c r="B366">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>348</v>
       </c>
       <c r="B367">
         <v>85</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>349</v>
       </c>
       <c r="B368">
         <v>84</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>350</v>
       </c>
       <c r="B369">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>351</v>
       </c>
       <c r="B370">
         <v>90.5</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>352</v>
       </c>
       <c r="B371">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>353</v>
       </c>
       <c r="B372">
         <v>83</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>354</v>
       </c>
       <c r="B373">
         <v>85.5</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C373">
+        <v>1</v>
+      </c>
+      <c r="D373" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>355</v>
       </c>
       <c r="B374">
         <v>82</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C374">
+        <v>1</v>
+      </c>
+      <c r="D374" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>356</v>
       </c>
       <c r="B375">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>357</v>
       </c>
       <c r="B376">
         <v>80.5</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C376">
+        <v>1</v>
+      </c>
+      <c r="D376" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>358</v>
       </c>
       <c r="B377">
         <v>86</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>359</v>
       </c>
       <c r="B378">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C378">
+        <v>1</v>
+      </c>
+      <c r="D378" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>360</v>
       </c>
       <c r="B379">
         <v>77</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>369</v>
       </c>
       <c r="B380">
         <v>74</v>
+      </c>
+      <c r="C380">
+        <v>1</v>
+      </c>
+      <c r="D380" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/assets/rumhowler_data.xlsx
+++ b/assets/rumhowler_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko\OneDrive\Työpöytä\Programming projects\alko_app\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C31A6E-6B04-4A3F-B28E-71B211480228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E927FA-7B6D-4493-BBDE-DC01C7EC9267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="405">
   <si>
     <t>Rum</t>
   </si>
@@ -1169,6 +1169,72 @@
   </si>
   <si>
     <t>therumhowlerblog.com</t>
+  </si>
+  <si>
+    <t>Baltic Dark muovipullo</t>
+  </si>
+  <si>
+    <t>Rhum Negrita Dark Signature</t>
+  </si>
+  <si>
+    <t>Barra Oak Bay Dark</t>
+  </si>
+  <si>
+    <t>Ron Cabana Blanco muovipullo</t>
+  </si>
+  <si>
+    <t>Rhum Negrita White Signature</t>
+  </si>
+  <si>
+    <t>Propeller Dark Rum</t>
+  </si>
+  <si>
+    <t>Baltic Light muovipullo</t>
+  </si>
+  <si>
+    <t>Rommiviina muovipullo</t>
+  </si>
+  <si>
+    <t>Old Pascas Dark</t>
+  </si>
+  <si>
+    <t>Barra Oak Bay Dark muovipullo</t>
+  </si>
+  <si>
+    <t>Rhum Negrita Dark Signature muovipullo</t>
+  </si>
+  <si>
+    <t>Barceló Blanco Añejado</t>
+  </si>
+  <si>
+    <t>Ching Shih Dark Spiced</t>
+  </si>
+  <si>
+    <t>Barbados Rommi muovipullo</t>
+  </si>
+  <si>
+    <t>Barra Oak Bay White muovipullo</t>
+  </si>
+  <si>
+    <t>Negrita Spiced Golden</t>
+  </si>
+  <si>
+    <t>Ripa's Honey &amp; Chili</t>
+  </si>
+  <si>
+    <t>Planteray O.F.T.D</t>
+  </si>
+  <si>
+    <t>Bacardi Carta Negra</t>
+  </si>
+  <si>
+    <t>Stroh</t>
+  </si>
+  <si>
+    <t>rumratings.com</t>
+  </si>
+  <si>
+    <t>isokaato.com</t>
   </si>
 </sst>
 </file>
@@ -1532,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D380"/>
+  <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:D20"/>
+    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D401" sqref="D401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6865,6 +6931,259 @@
         <v>382</v>
       </c>
     </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>383</v>
+      </c>
+      <c r="B381">
+        <v>22</v>
+      </c>
+      <c r="C381">
+        <v>5</v>
+      </c>
+      <c r="D381" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>384</v>
+      </c>
+      <c r="B382">
+        <v>29</v>
+      </c>
+      <c r="C382">
+        <v>95</v>
+      </c>
+      <c r="D382" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>385</v>
+      </c>
+      <c r="B383">
+        <v>48</v>
+      </c>
+      <c r="C383">
+        <v>5</v>
+      </c>
+      <c r="D383" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>386</v>
+      </c>
+      <c r="B384">
+        <v>54</v>
+      </c>
+      <c r="C384">
+        <v>16</v>
+      </c>
+      <c r="D384" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>387</v>
+      </c>
+      <c r="B385">
+        <v>47</v>
+      </c>
+      <c r="C385">
+        <v>11</v>
+      </c>
+      <c r="D385" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>388</v>
+      </c>
+      <c r="B386">
+        <v>48</v>
+      </c>
+      <c r="C386">
+        <v>9</v>
+      </c>
+      <c r="D386" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>389</v>
+      </c>
+      <c r="B387">
+        <v>20</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>390</v>
+      </c>
+      <c r="B388">
+        <v>30</v>
+      </c>
+      <c r="C388">
+        <v>1</v>
+      </c>
+      <c r="D388" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>391</v>
+      </c>
+      <c r="B389">
+        <v>49</v>
+      </c>
+      <c r="C389">
+        <v>31</v>
+      </c>
+      <c r="D389" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>392</v>
+      </c>
+      <c r="B390">
+        <v>48</v>
+      </c>
+      <c r="C390">
+        <v>5</v>
+      </c>
+      <c r="D390" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>393</v>
+      </c>
+      <c r="B391">
+        <v>29</v>
+      </c>
+      <c r="C391">
+        <v>95</v>
+      </c>
+      <c r="D391" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>394</v>
+      </c>
+      <c r="B392">
+        <v>52</v>
+      </c>
+      <c r="C392">
+        <v>25</v>
+      </c>
+      <c r="D392" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>397</v>
+      </c>
+      <c r="B395">
+        <v>63</v>
+      </c>
+      <c r="C395">
+        <v>4</v>
+      </c>
+      <c r="D395" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>398</v>
+      </c>
+      <c r="B396">
+        <v>47</v>
+      </c>
+      <c r="C396">
+        <v>24</v>
+      </c>
+      <c r="D396" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>400</v>
+      </c>
+      <c r="B398">
+        <v>76</v>
+      </c>
+      <c r="C398">
+        <v>285</v>
+      </c>
+      <c r="D398" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>401</v>
+      </c>
+      <c r="B399">
+        <v>48</v>
+      </c>
+      <c r="C399">
+        <v>117</v>
+      </c>
+      <c r="D399" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>402</v>
+      </c>
+      <c r="B400">
+        <v>39</v>
+      </c>
+      <c r="C400">
+        <v>32</v>
+      </c>
+      <c r="D400" t="s">
+        <v>403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/assets/rumhowler_data.xlsx
+++ b/assets/rumhowler_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko\OneDrive\Työpöytä\Programming projects\alko_app\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E927FA-7B6D-4493-BBDE-DC01C7EC9267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF13093A-294E-45BC-97D9-3BAE38305D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="515">
   <si>
     <t>Rum</t>
   </si>
@@ -1235,6 +1235,336 @@
   </si>
   <si>
     <t>isokaato.com</t>
+  </si>
+  <si>
+    <t>Rum Nr. 7 Black muovipullo</t>
+  </si>
+  <si>
+    <t>Mount Gay Eclipse Navy Strength</t>
+  </si>
+  <si>
+    <t>Rivière du Mât Black Spiced</t>
+  </si>
+  <si>
+    <t>Havana Club Añejo Especial</t>
+  </si>
+  <si>
+    <t>Barracuda Caribbean White muovipullo</t>
+  </si>
+  <si>
+    <t>Bacardi Spiced</t>
+  </si>
+  <si>
+    <t>Bacardi Razz</t>
+  </si>
+  <si>
+    <t>Bacardi Limón</t>
+  </si>
+  <si>
+    <t>Captain Morgan</t>
+  </si>
+  <si>
+    <t>Havana Club Cuban Spiced</t>
+  </si>
+  <si>
+    <t>Bacardi Coconut</t>
+  </si>
+  <si>
+    <t>Angostura White Reserva</t>
+  </si>
+  <si>
+    <t>Diplomático Planas</t>
+  </si>
+  <si>
+    <t>Stroh 60 % muovipullo</t>
+  </si>
+  <si>
+    <t>Matusalem Solera 7</t>
+  </si>
+  <si>
+    <t>La Cruz Spiced muovipullo</t>
+  </si>
+  <si>
+    <t>Planteray Barbados Grande Reserve</t>
+  </si>
+  <si>
+    <t>Rivière du Mât Arrangé Vanille</t>
+  </si>
+  <si>
+    <t>Rivière du Mât Arrangé Ananas</t>
+  </si>
+  <si>
+    <t>Botran 8</t>
+  </si>
+  <si>
+    <t>Bush Rum Passionfruit &amp; Guava</t>
+  </si>
+  <si>
+    <t>Plantation Xaymaca Special Dry</t>
+  </si>
+  <si>
+    <t>Bacardi Reserva Ocho</t>
+  </si>
+  <si>
+    <t>Diplomático Mantuano</t>
+  </si>
+  <si>
+    <t>Westbourne Duppy Share White</t>
+  </si>
+  <si>
+    <t>Malecon Rare Proof Añejo 13 Años</t>
+  </si>
+  <si>
+    <t>The Duppy Share Aged</t>
+  </si>
+  <si>
+    <t>Chairman's Reserve White</t>
+  </si>
+  <si>
+    <t>Naud Ron Venezuela 12 Años</t>
+  </si>
+  <si>
+    <t>Island Signature Anacaona Gran Reserva Rum</t>
+  </si>
+  <si>
+    <t>Island Signature Turquoise Bay Amber Rum</t>
+  </si>
+  <si>
+    <t>Island Signature Tierra Madre</t>
+  </si>
+  <si>
+    <t>Island Signature Yellow Snake Amber Rum</t>
+  </si>
+  <si>
+    <t>Planteray Isle of Fiji</t>
+  </si>
+  <si>
+    <t>Canerock</t>
+  </si>
+  <si>
+    <t>Mulata Carta Blanca 3 Años</t>
+  </si>
+  <si>
+    <t>E.T.51 Premium Rum</t>
+  </si>
+  <si>
+    <t>The Demon's Share 3 Year Old</t>
+  </si>
+  <si>
+    <t>Come Hell Or High Water Spiced</t>
+  </si>
+  <si>
+    <t>Bayou Pink</t>
+  </si>
+  <si>
+    <t>Mezan Chiriqui</t>
+  </si>
+  <si>
+    <t>By the Dutch Batavia Arrack Indonesia Rum</t>
+  </si>
+  <si>
+    <t>Pusser's Original</t>
+  </si>
+  <si>
+    <t>Equiano Light Rum</t>
+  </si>
+  <si>
+    <t>Planteray Cut &amp; Dry Coconut</t>
+  </si>
+  <si>
+    <t>The Demons Share 6 Years Old</t>
+  </si>
+  <si>
+    <t>Compagnie Des Indes Jamaica 5 Year Old</t>
+  </si>
+  <si>
+    <t>Ron Tabú Ronmiel</t>
+  </si>
+  <si>
+    <t>Motörhead Premium Dark Rum</t>
+  </si>
+  <si>
+    <t>Captain Morgan Tiki</t>
+  </si>
+  <si>
+    <t>Discarded Banana Peel</t>
+  </si>
+  <si>
+    <t>Ron Aldea Single Estate Eco Rhum 2019</t>
+  </si>
+  <si>
+    <t>Naud Ron Panamá 15 Años</t>
+  </si>
+  <si>
+    <t>Pusser's Rum Coronation Reserve</t>
+  </si>
+  <si>
+    <t>Bumbu</t>
+  </si>
+  <si>
+    <t>rum-x.com</t>
+  </si>
+  <si>
+    <t>therumbarrel.co.uk</t>
+  </si>
+  <si>
+    <t>Hell Or High Water Rum Reserva</t>
+  </si>
+  <si>
+    <t>Hell Or High Water Reserva Honey &amp; Orange</t>
+  </si>
+  <si>
+    <t>Planteray Sealander</t>
+  </si>
+  <si>
+    <t>Bodegas Papiamento Caribbean Carnival</t>
+  </si>
+  <si>
+    <t>Readers´Rum Preface</t>
+  </si>
+  <si>
+    <t>Compañero Panama Extra Añejo</t>
+  </si>
+  <si>
+    <t>Hee Joy VSOP Dominican Rum</t>
+  </si>
+  <si>
+    <t>Hee Joy VSOP Rum Jamaica</t>
+  </si>
+  <si>
+    <t>After Rum</t>
+  </si>
+  <si>
+    <t>Come Hell Or High Water Rum XO</t>
+  </si>
+  <si>
+    <t>Relicario Ron Dominicano</t>
+  </si>
+  <si>
+    <t>Plantation Venezuela Vintage 2010</t>
+  </si>
+  <si>
+    <t>Martes Santo Añejo</t>
+  </si>
+  <si>
+    <t>Renegade Old Bacolet Pre-Cask Single Farm Rum 2020</t>
+  </si>
+  <si>
+    <t>Plantation Barbados Vintage 2013</t>
+  </si>
+  <si>
+    <t>Planteray Barbados 20th Anniversary XO</t>
+  </si>
+  <si>
+    <t>Rhum J.M. Terroir Volcanique Rhum Vieux Agricole</t>
+  </si>
+  <si>
+    <t>Plantation Panama Vintage 2010</t>
+  </si>
+  <si>
+    <t>Planteray Single Cask Paraguay 2019 Kyrö Rye Whisky Cask Finish</t>
+  </si>
+  <si>
+    <t>Planteray Single Cask Fiji Islands 2019 Coffee Liqueur Cask Finish</t>
+  </si>
+  <si>
+    <t>Bumbu XO</t>
+  </si>
+  <si>
+    <t>Equiano Original Rum</t>
+  </si>
+  <si>
+    <t>The Real McCoy 12 Year Old</t>
+  </si>
+  <si>
+    <t>Plantation Barbados Vintage 2007</t>
+  </si>
+  <si>
+    <t>Casa Elemental Ron Blanco Artesanal</t>
+  </si>
+  <si>
+    <t>Ron Matusalem Gran Reserva Solera 15</t>
+  </si>
+  <si>
+    <t>Rammstein Rum</t>
+  </si>
+  <si>
+    <t>Caña de Emperador 16 Year Old Guyana Rum</t>
+  </si>
+  <si>
+    <t>Botran Solera 1893</t>
+  </si>
+  <si>
+    <t>Banditti Club</t>
+  </si>
+  <si>
+    <t>Readers' Rum Chapter One</t>
+  </si>
+  <si>
+    <t>Diplomático Selección de Familia</t>
+  </si>
+  <si>
+    <t>Bristol Spirits Trinidad 8 Years Old</t>
+  </si>
+  <si>
+    <t>Centenario Ron Fundación 20 Aniversario</t>
+  </si>
+  <si>
+    <t>Mount Gay XO Triple Cask Blend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planteray Barbados 20th Anniversary XO Pedro Ximenez Cask Finish </t>
+  </si>
+  <si>
+    <t>Dictador 12 Years Icon Reserve</t>
+  </si>
+  <si>
+    <t>Kalevala Runoi Rum</t>
+  </si>
+  <si>
+    <t>Brugal Colección Visionaria Edición 02</t>
+  </si>
+  <si>
+    <t>Dictador Icon Reserve 20 Year Old</t>
+  </si>
+  <si>
+    <t>Ron Matusalem 23 Gran Reserva</t>
+  </si>
+  <si>
+    <t>Saint James Single Cask Rhum Vieux Agricole 1999</t>
+  </si>
+  <si>
+    <t>Mount Gay XO The Peat Smoke Expression</t>
+  </si>
+  <si>
+    <t>Brugal Maestro Reserva</t>
+  </si>
+  <si>
+    <t>Havana Club Añejo 15 Años Gran Reserva</t>
+  </si>
+  <si>
+    <t>Mount Gay Single Estate Series Release 01</t>
+  </si>
+  <si>
+    <t>Mount Gay Single Estate Series Release 24_02</t>
+  </si>
+  <si>
+    <t>Havana Club Maximo</t>
+  </si>
+  <si>
+    <t>amazon.co.uk</t>
+  </si>
+  <si>
+    <t>reddit.com/r/rum</t>
+  </si>
+  <si>
+    <t>rhumattitude.com</t>
+  </si>
+  <si>
+    <t>excellencerhum.com</t>
+  </si>
+  <si>
+    <t>masterofmalt.com</t>
   </si>
 </sst>
 </file>
@@ -1598,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D400"/>
+  <dimension ref="A1:D504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D401" sqref="D401"/>
+    <sheetView tabSelected="1" topLeftCell="A490" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C506" sqref="C506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,13 +2744,13 @@
         <v>372</v>
       </c>
       <c r="B58">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>591</v>
       </c>
       <c r="D58" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -7181,6 +7511,1414 @@
         <v>32</v>
       </c>
       <c r="D400" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>405</v>
+      </c>
+      <c r="B401">
+        <v>13</v>
+      </c>
+      <c r="C401">
+        <v>4</v>
+      </c>
+      <c r="D401" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>406</v>
+      </c>
+      <c r="B402">
+        <v>63</v>
+      </c>
+      <c r="C402">
+        <v>11</v>
+      </c>
+      <c r="D402" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>407</v>
+      </c>
+      <c r="B403">
+        <v>65</v>
+      </c>
+      <c r="C403">
+        <v>21</v>
+      </c>
+      <c r="D403" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>408</v>
+      </c>
+      <c r="B404">
+        <v>60</v>
+      </c>
+      <c r="C404">
+        <v>447</v>
+      </c>
+      <c r="D404" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>409</v>
+      </c>
+      <c r="B405">
+        <v>27</v>
+      </c>
+      <c r="C405">
+        <v>7</v>
+      </c>
+      <c r="D405" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>410</v>
+      </c>
+      <c r="B406">
+        <v>50</v>
+      </c>
+      <c r="C406">
+        <v>99</v>
+      </c>
+      <c r="D406" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>411</v>
+      </c>
+      <c r="B407">
+        <v>32</v>
+      </c>
+      <c r="C407">
+        <v>88</v>
+      </c>
+      <c r="D407" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>412</v>
+      </c>
+      <c r="B408">
+        <v>35</v>
+      </c>
+      <c r="C408">
+        <v>128</v>
+      </c>
+      <c r="D408" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>413</v>
+      </c>
+      <c r="B409">
+        <v>42</v>
+      </c>
+      <c r="C409">
+        <v>591</v>
+      </c>
+      <c r="D409" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>414</v>
+      </c>
+      <c r="B410">
+        <v>45</v>
+      </c>
+      <c r="C410">
+        <v>14</v>
+      </c>
+      <c r="D410" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>416</v>
+      </c>
+      <c r="B411">
+        <v>59</v>
+      </c>
+      <c r="C411">
+        <v>21</v>
+      </c>
+      <c r="D411" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>415</v>
+      </c>
+      <c r="B412">
+        <v>54</v>
+      </c>
+      <c r="C412">
+        <v>49</v>
+      </c>
+      <c r="D412" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>417</v>
+      </c>
+      <c r="B413">
+        <v>60</v>
+      </c>
+      <c r="C413">
+        <v>91</v>
+      </c>
+      <c r="D413" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>418</v>
+      </c>
+      <c r="B414">
+        <v>30</v>
+      </c>
+      <c r="C414">
+        <v>24</v>
+      </c>
+      <c r="D414" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>419</v>
+      </c>
+      <c r="B415">
+        <v>60</v>
+      </c>
+      <c r="C415">
+        <v>52</v>
+      </c>
+      <c r="D415" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>421</v>
+      </c>
+      <c r="B417">
+        <v>65</v>
+      </c>
+      <c r="C417">
+        <v>312</v>
+      </c>
+      <c r="D417" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>422</v>
+      </c>
+      <c r="B418">
+        <v>52</v>
+      </c>
+      <c r="C418">
+        <v>5</v>
+      </c>
+      <c r="D418" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>423</v>
+      </c>
+      <c r="B419">
+        <v>61</v>
+      </c>
+      <c r="C419">
+        <v>9</v>
+      </c>
+      <c r="D419" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>424</v>
+      </c>
+      <c r="B420">
+        <v>56</v>
+      </c>
+      <c r="C420">
+        <v>21</v>
+      </c>
+      <c r="D420" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>425</v>
+      </c>
+      <c r="B421">
+        <v>69</v>
+      </c>
+      <c r="C421">
+        <v>1</v>
+      </c>
+      <c r="D421" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>426</v>
+      </c>
+      <c r="B422">
+        <v>66</v>
+      </c>
+      <c r="C422">
+        <v>240</v>
+      </c>
+      <c r="D422" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>427</v>
+      </c>
+      <c r="B423">
+        <v>62</v>
+      </c>
+      <c r="C423">
+        <v>143</v>
+      </c>
+      <c r="D423" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>428</v>
+      </c>
+      <c r="B424">
+        <v>65</v>
+      </c>
+      <c r="C424">
+        <v>398</v>
+      </c>
+      <c r="D424" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>429</v>
+      </c>
+      <c r="B425">
+        <v>79</v>
+      </c>
+      <c r="C425">
+        <v>17</v>
+      </c>
+      <c r="D425" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>430</v>
+      </c>
+      <c r="B426">
+        <v>76</v>
+      </c>
+      <c r="C426">
+        <v>8</v>
+      </c>
+      <c r="D426" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>431</v>
+      </c>
+      <c r="B427">
+        <v>64</v>
+      </c>
+      <c r="C427">
+        <v>127</v>
+      </c>
+      <c r="D427" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>432</v>
+      </c>
+      <c r="B428">
+        <v>67</v>
+      </c>
+      <c r="C428">
+        <v>10</v>
+      </c>
+      <c r="D428" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>433</v>
+      </c>
+      <c r="B429">
+        <v>65</v>
+      </c>
+      <c r="C429">
+        <v>3</v>
+      </c>
+      <c r="D429" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>428</v>
+      </c>
+      <c r="B430">
+        <v>65</v>
+      </c>
+      <c r="C430">
+        <v>398</v>
+      </c>
+      <c r="D430" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>434</v>
+      </c>
+      <c r="B431">
+        <v>56</v>
+      </c>
+      <c r="C431">
+        <v>6</v>
+      </c>
+      <c r="D431" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>435</v>
+      </c>
+      <c r="B432">
+        <v>69</v>
+      </c>
+      <c r="C432">
+        <v>33</v>
+      </c>
+      <c r="D432" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>436</v>
+      </c>
+      <c r="B433">
+        <v>55</v>
+      </c>
+      <c r="C433">
+        <v>3</v>
+      </c>
+      <c r="D433" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>437</v>
+      </c>
+      <c r="B434">
+        <v>52</v>
+      </c>
+      <c r="C434">
+        <v>14</v>
+      </c>
+      <c r="D434" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>438</v>
+      </c>
+      <c r="B435">
+        <v>66</v>
+      </c>
+      <c r="C435">
+        <v>154</v>
+      </c>
+      <c r="D435" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>439</v>
+      </c>
+      <c r="B436">
+        <v>58</v>
+      </c>
+      <c r="C436">
+        <v>73</v>
+      </c>
+      <c r="D436" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>440</v>
+      </c>
+      <c r="B437">
+        <v>70</v>
+      </c>
+      <c r="C437">
+        <v>3</v>
+      </c>
+      <c r="D437" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>441</v>
+      </c>
+      <c r="B438">
+        <v>55</v>
+      </c>
+      <c r="C438">
+        <v>2</v>
+      </c>
+      <c r="D438" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>442</v>
+      </c>
+      <c r="B439">
+        <v>50</v>
+      </c>
+      <c r="C439">
+        <v>12</v>
+      </c>
+      <c r="D439" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>443</v>
+      </c>
+      <c r="B440">
+        <v>30</v>
+      </c>
+      <c r="C440">
+        <v>4</v>
+      </c>
+      <c r="D440" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>444</v>
+      </c>
+      <c r="B441">
+        <v>46</v>
+      </c>
+      <c r="C441">
+        <v>8</v>
+      </c>
+      <c r="D441" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>445</v>
+      </c>
+      <c r="B442">
+        <v>52</v>
+      </c>
+      <c r="C442">
+        <v>13</v>
+      </c>
+      <c r="D442" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>446</v>
+      </c>
+      <c r="B443">
+        <v>84.5</v>
+      </c>
+      <c r="C443">
+        <v>1</v>
+      </c>
+      <c r="D443" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>447</v>
+      </c>
+      <c r="B444">
+        <v>67</v>
+      </c>
+      <c r="C444">
+        <v>461</v>
+      </c>
+      <c r="D444" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>448</v>
+      </c>
+      <c r="B445">
+        <v>58</v>
+      </c>
+      <c r="C445">
+        <v>5</v>
+      </c>
+      <c r="D445" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>449</v>
+      </c>
+      <c r="B446">
+        <v>76</v>
+      </c>
+      <c r="C446">
+        <v>17</v>
+      </c>
+      <c r="D446" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>450</v>
+      </c>
+      <c r="B447">
+        <v>53</v>
+      </c>
+      <c r="C447">
+        <v>75</v>
+      </c>
+      <c r="D447" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>451</v>
+      </c>
+      <c r="B448">
+        <v>62</v>
+      </c>
+      <c r="C448">
+        <v>6</v>
+      </c>
+      <c r="D448" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>453</v>
+      </c>
+      <c r="B450">
+        <v>67</v>
+      </c>
+      <c r="C450">
+        <v>46</v>
+      </c>
+      <c r="D450" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>454</v>
+      </c>
+      <c r="B451">
+        <v>28</v>
+      </c>
+      <c r="C451">
+        <v>29</v>
+      </c>
+      <c r="D451" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>455</v>
+      </c>
+      <c r="B452">
+        <v>69</v>
+      </c>
+      <c r="C452">
+        <v>21</v>
+      </c>
+      <c r="D452" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>456</v>
+      </c>
+      <c r="B453">
+        <v>62</v>
+      </c>
+      <c r="C453">
+        <v>10</v>
+      </c>
+      <c r="D453" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>457</v>
+      </c>
+      <c r="B454">
+        <v>70</v>
+      </c>
+      <c r="C454">
+        <v>27</v>
+      </c>
+      <c r="D454" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>458</v>
+      </c>
+      <c r="B455">
+        <v>77</v>
+      </c>
+      <c r="C455">
+        <v>11</v>
+      </c>
+      <c r="D455" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>459</v>
+      </c>
+      <c r="B456">
+        <v>63</v>
+      </c>
+      <c r="C456">
+        <v>958</v>
+      </c>
+      <c r="D456" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>462</v>
+      </c>
+      <c r="B457">
+        <v>60</v>
+      </c>
+      <c r="C457">
+        <v>1</v>
+      </c>
+      <c r="D457" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>463</v>
+      </c>
+      <c r="B458">
+        <v>92</v>
+      </c>
+      <c r="C458">
+        <v>9</v>
+      </c>
+      <c r="D458" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>464</v>
+      </c>
+      <c r="B459">
+        <v>68</v>
+      </c>
+      <c r="C459">
+        <v>30</v>
+      </c>
+      <c r="D459" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>465</v>
+      </c>
+      <c r="B460">
+        <v>55</v>
+      </c>
+      <c r="C460">
+        <v>1</v>
+      </c>
+      <c r="D460" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>466</v>
+      </c>
+      <c r="D461" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>467</v>
+      </c>
+      <c r="B462">
+        <v>73</v>
+      </c>
+      <c r="C462">
+        <v>131</v>
+      </c>
+      <c r="D462" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>468</v>
+      </c>
+      <c r="D463" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>469</v>
+      </c>
+      <c r="B464">
+        <v>80</v>
+      </c>
+      <c r="C464">
+        <v>1</v>
+      </c>
+      <c r="D464" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>470</v>
+      </c>
+      <c r="B465">
+        <v>96</v>
+      </c>
+      <c r="C465">
+        <v>375</v>
+      </c>
+      <c r="D465" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>471</v>
+      </c>
+      <c r="B466">
+        <v>69</v>
+      </c>
+      <c r="C466">
+        <v>17</v>
+      </c>
+      <c r="D466" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>472</v>
+      </c>
+      <c r="B467">
+        <v>80</v>
+      </c>
+      <c r="C467">
+        <v>3</v>
+      </c>
+      <c r="D467" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>473</v>
+      </c>
+      <c r="B468">
+        <v>76</v>
+      </c>
+      <c r="C468">
+        <v>12</v>
+      </c>
+      <c r="D468" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>474</v>
+      </c>
+      <c r="D469" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>475</v>
+      </c>
+      <c r="B470">
+        <v>40</v>
+      </c>
+      <c r="C470">
+        <v>2</v>
+      </c>
+      <c r="D470" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>476</v>
+      </c>
+      <c r="B471">
+        <v>81</v>
+      </c>
+      <c r="C471">
+        <v>8</v>
+      </c>
+      <c r="D471" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>477</v>
+      </c>
+      <c r="B472">
+        <v>84</v>
+      </c>
+      <c r="C472">
+        <v>1933</v>
+      </c>
+      <c r="D472" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>478</v>
+      </c>
+      <c r="B473">
+        <v>67</v>
+      </c>
+      <c r="C473">
+        <v>47</v>
+      </c>
+      <c r="D473" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>479</v>
+      </c>
+      <c r="B474">
+        <v>67</v>
+      </c>
+      <c r="C474">
+        <v>3</v>
+      </c>
+      <c r="D474" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>480</v>
+      </c>
+      <c r="B475">
+        <v>65</v>
+      </c>
+      <c r="C475">
+        <v>2</v>
+      </c>
+      <c r="D475" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>481</v>
+      </c>
+      <c r="B476">
+        <v>73</v>
+      </c>
+      <c r="C476">
+        <v>3</v>
+      </c>
+      <c r="D476" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>482</v>
+      </c>
+      <c r="B477">
+        <v>71</v>
+      </c>
+      <c r="C477">
+        <v>306</v>
+      </c>
+      <c r="D477" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>483</v>
+      </c>
+      <c r="B478">
+        <v>76</v>
+      </c>
+      <c r="C478">
+        <v>105</v>
+      </c>
+      <c r="D478" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>484</v>
+      </c>
+      <c r="B479">
+        <v>76</v>
+      </c>
+      <c r="C479">
+        <v>188</v>
+      </c>
+      <c r="D479" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>485</v>
+      </c>
+      <c r="B480">
+        <v>81</v>
+      </c>
+      <c r="C480">
+        <v>75</v>
+      </c>
+      <c r="D480" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>486</v>
+      </c>
+      <c r="D481" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>487</v>
+      </c>
+      <c r="B482">
+        <v>64</v>
+      </c>
+      <c r="C482">
+        <v>713</v>
+      </c>
+      <c r="D482" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>488</v>
+      </c>
+      <c r="B483">
+        <v>72</v>
+      </c>
+      <c r="C483">
+        <v>55</v>
+      </c>
+      <c r="D483" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>489</v>
+      </c>
+      <c r="B484">
+        <v>75</v>
+      </c>
+      <c r="C484">
+        <v>3</v>
+      </c>
+      <c r="D484" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>490</v>
+      </c>
+      <c r="B485">
+        <v>70</v>
+      </c>
+      <c r="C485">
+        <v>225</v>
+      </c>
+      <c r="D485" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>491</v>
+      </c>
+      <c r="B486">
+        <v>80</v>
+      </c>
+      <c r="C486">
+        <v>22</v>
+      </c>
+      <c r="D486" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>492</v>
+      </c>
+      <c r="D487" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>493</v>
+      </c>
+      <c r="B488">
+        <v>81</v>
+      </c>
+      <c r="C488">
+        <v>145</v>
+      </c>
+      <c r="D488" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>494</v>
+      </c>
+      <c r="B489">
+        <v>87</v>
+      </c>
+      <c r="C489">
+        <v>3</v>
+      </c>
+      <c r="D489" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>495</v>
+      </c>
+      <c r="B490">
+        <v>82</v>
+      </c>
+      <c r="C490">
+        <v>385</v>
+      </c>
+      <c r="D490" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>496</v>
+      </c>
+      <c r="B491">
+        <v>80</v>
+      </c>
+      <c r="C491">
+        <v>143</v>
+      </c>
+      <c r="D491" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>497</v>
+      </c>
+      <c r="B492">
+        <v>84</v>
+      </c>
+      <c r="C492">
+        <v>1933</v>
+      </c>
+      <c r="D492" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>498</v>
+      </c>
+      <c r="B493">
+        <v>69</v>
+      </c>
+      <c r="C493">
+        <v>483</v>
+      </c>
+      <c r="D493" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>499</v>
+      </c>
+      <c r="B494">
+        <v>80</v>
+      </c>
+      <c r="C494">
+        <v>3</v>
+      </c>
+      <c r="D494" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>500</v>
+      </c>
+      <c r="B495">
+        <v>65</v>
+      </c>
+      <c r="C495">
+        <v>6</v>
+      </c>
+      <c r="D495" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>501</v>
+      </c>
+      <c r="B496">
+        <v>74</v>
+      </c>
+      <c r="C496">
+        <v>418</v>
+      </c>
+      <c r="D496" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>502</v>
+      </c>
+      <c r="B497">
+        <v>72</v>
+      </c>
+      <c r="C497">
+        <v>229</v>
+      </c>
+      <c r="D497" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>503</v>
+      </c>
+      <c r="B498">
+        <v>80</v>
+      </c>
+      <c r="C498">
+        <v>1</v>
+      </c>
+      <c r="D498" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>504</v>
+      </c>
+      <c r="B499">
+        <v>71</v>
+      </c>
+      <c r="C499">
+        <v>13</v>
+      </c>
+      <c r="D499" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>505</v>
+      </c>
+      <c r="B500">
+        <v>71</v>
+      </c>
+      <c r="C500">
+        <v>7</v>
+      </c>
+      <c r="D500" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>506</v>
+      </c>
+      <c r="B501">
+        <v>79</v>
+      </c>
+      <c r="C501">
+        <v>88</v>
+      </c>
+      <c r="D501" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>507</v>
+      </c>
+      <c r="B502">
+        <v>80</v>
+      </c>
+      <c r="C502">
+        <v>2</v>
+      </c>
+      <c r="D502" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>508</v>
+      </c>
+      <c r="B503">
+        <v>82</v>
+      </c>
+      <c r="C503">
+        <v>20</v>
+      </c>
+      <c r="D503" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>509</v>
+      </c>
+      <c r="B504">
+        <v>88</v>
+      </c>
+      <c r="C504">
+        <v>18</v>
+      </c>
+      <c r="D504" t="s">
         <v>403</v>
       </c>
     </row>
